--- a/data/trans_dic/P14B24_2016_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P14B24_2016_2023-Dificultad-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.0194911045652421</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.07666366925867396</v>
+        <v>0.07666366925867395</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.07573457546744908</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01220995085213894</v>
+        <v>0.01268363325628971</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05690183377031424</v>
+        <v>0.05501911588115205</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06014629826071987</v>
+        <v>0.0608199134756096</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08552148542643304</v>
+        <v>0.08765247224481509</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0408744859095314</v>
+        <v>0.040561686145287</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07910028581066254</v>
+        <v>0.07911055588759074</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02837643765714087</v>
+        <v>0.02888709300253854</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1033314201091283</v>
+        <v>0.1043901909808354</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0921552221412751</v>
+        <v>0.09206879747742236</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1298118413306096</v>
+        <v>0.1297141259233015</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05918028810804184</v>
+        <v>0.05979056436804204</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1106341833789394</v>
+        <v>0.1107414217895661</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004525943336352173</v>
+        <v>0.004040395787353176</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01076366965501128</v>
+        <v>0.01056459231324487</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01515134350252894</v>
+        <v>0.01503758236059238</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04757084210315615</v>
+        <v>0.04789813727869291</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01126586815089063</v>
+        <v>0.01132655731520231</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03260780726466594</v>
+        <v>0.03252766842911043</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01719631371706071</v>
+        <v>0.01697921864916944</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0300053083544819</v>
+        <v>0.02799182663943927</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03352114011914527</v>
+        <v>0.03350504791660953</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07211569009464949</v>
+        <v>0.07184147807012921</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02323919462572549</v>
+        <v>0.02274695686763124</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04865328581047525</v>
+        <v>0.04780203966811997</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.01289739139629176</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.03366048947735103</v>
+        <v>0.03366048947735104</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002251896870413781</v>
+        <v>0.002280015129525439</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.009569164061577783</v>
+        <v>0.009587213481826642</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01119762354674748</v>
+        <v>0.01203002175646852</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03960765349243073</v>
+        <v>0.04038402603686905</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.007547618862821045</v>
+        <v>0.008123272020409999</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02701362796958084</v>
+        <v>0.02676437587094424</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01414743435453437</v>
+        <v>0.01415143531170245</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02465332916368775</v>
+        <v>0.02554875634655954</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03320447003192267</v>
+        <v>0.03301573351931478</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06539024270993893</v>
+        <v>0.06643185566694274</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02124799215836228</v>
+        <v>0.020031679363937</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04228794443613058</v>
+        <v>0.04188750600098993</v>
       </c>
     </row>
     <row r="13">
@@ -884,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01389714893271115</v>
+        <v>0.01395993282607615</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01099221773459421</v>
+        <v>0.0113561263626933</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03607527956779046</v>
+        <v>0.03656562922918614</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.005961514325236577</v>
+        <v>0.005946071642401732</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02681443989560384</v>
+        <v>0.02686354233986258</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.008530598954963785</v>
+        <v>0.01014344742715196</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03763544046289601</v>
+        <v>0.03617271083249291</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03825674958578724</v>
+        <v>0.03741571908156692</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0598979758260395</v>
+        <v>0.05928570206887417</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01918781433009163</v>
+        <v>0.01990324784502777</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04316213630614641</v>
+        <v>0.04306478983137058</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         <v>0.02622026114104613</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.04480463827360735</v>
+        <v>0.04480463827360734</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.007761050984494415</v>
+        <v>0.007689941212343045</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02163831010545988</v>
+        <v>0.02125413428457058</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03462341557837361</v>
+        <v>0.03504541597710065</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05471607200755225</v>
+        <v>0.0551572552273501</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02254628047423686</v>
+        <v>0.02265019963623311</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04026960072039427</v>
+        <v>0.04026320570420273</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01464317802155315</v>
+        <v>0.01484290629910915</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03235659764572384</v>
+        <v>0.0327638533752457</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04893533140230109</v>
+        <v>0.04847387407327754</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06913382036694404</v>
+        <v>0.06842415450304183</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03055664193908352</v>
+        <v>0.03025793665896584</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04958107972705756</v>
+        <v>0.04990858194292697</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13773</v>
+        <v>14307</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>28210</v>
+        <v>27277</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>75758</v>
+        <v>76606</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>53329</v>
+        <v>54658</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>97590</v>
+        <v>96843</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>88541</v>
+        <v>88552</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>32009</v>
+        <v>32585</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>51228</v>
+        <v>51753</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>116075</v>
+        <v>115966</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>80948</v>
+        <v>80887</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>141296</v>
+        <v>142753</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>123838</v>
+        <v>123958</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4109</v>
+        <v>3668</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10335</v>
+        <v>10143</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>15249</v>
+        <v>15135</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>52978</v>
+        <v>53342</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>21567</v>
+        <v>21684</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>67622</v>
+        <v>67456</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15613</v>
+        <v>15416</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>28809</v>
+        <v>26876</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>33738</v>
+        <v>33722</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>80313</v>
+        <v>80007</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>44489</v>
+        <v>43547</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>100897</v>
+        <v>99132</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1855</v>
+        <v>1878</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10003</v>
+        <v>10022</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8634</v>
+        <v>9276</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>41442</v>
+        <v>42254</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>12037</v>
+        <v>12955</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>56503</v>
+        <v>55982</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11654</v>
+        <v>11657</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25771</v>
+        <v>26707</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>25603</v>
+        <v>25457</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>68418</v>
+        <v>69508</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>33887</v>
+        <v>31947</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>88452</v>
+        <v>87614</v>
       </c>
     </row>
     <row r="16">
@@ -1518,19 +1518,19 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>13563</v>
+        <v>13624</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5383</v>
+        <v>5561</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>32765</v>
+        <v>33211</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5940</v>
+        <v>5925</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>50523</v>
+        <v>50616</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4322</v>
+        <v>5140</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>36730</v>
+        <v>35302</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>18734</v>
+        <v>18322</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>54402</v>
+        <v>53846</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>19119</v>
+        <v>19832</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>81325</v>
+        <v>81142</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>26127</v>
+        <v>25887</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>75240</v>
+        <v>73905</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>122110</v>
+        <v>123598</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>202001</v>
+        <v>203629</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>155415</v>
+        <v>156132</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>288692</v>
+        <v>288646</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>49295</v>
+        <v>49967</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>112510</v>
+        <v>113926</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>172585</v>
+        <v>170957</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>255228</v>
+        <v>252608</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>210632</v>
+        <v>208573</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>355446</v>
+        <v>357794</v>
       </c>
     </row>
     <row r="24">
